--- a/pr.xlsx
+++ b/pr.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD34B4C-D172-46D4-9EA6-4AA257A929BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B53F81C-531E-409F-871A-0C626AA1F54E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Főoldal bejelentkezés nélkül" sheetId="3" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Feedback bejelentkezés nélkül" sheetId="5" r:id="rId4"/>
     <sheet name="Bejelentkezés" sheetId="2" r:id="rId5"/>
     <sheet name="Regiszrtáció" sheetId="1" r:id="rId6"/>
+    <sheet name="Profil" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
   <si>
     <t>Közbeszerzési Adatbázis</t>
   </si>
@@ -594,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -734,6 +735,51 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -806,51 +852,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1004,6 +1005,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1292,7 +1294,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,7 +1422,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,12 +1534,12 @@
     <row r="5" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="S1:U4"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:I4"/>
     <mergeCell ref="J1:L4"/>
     <mergeCell ref="M1:O4"/>
     <mergeCell ref="P1:R4"/>
-    <mergeCell ref="S1:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1545,15 +1547,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062CFCBD-E0F6-494E-99FD-52CCD11B911D}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>4</v>
       </c>
@@ -1588,7 +1590,7 @@
       <c r="T1" s="44"/>
       <c r="U1" s="49"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" s="46"/>
       <c r="C2" s="45"/>
@@ -1611,7 +1613,7 @@
       <c r="T2" s="46"/>
       <c r="U2" s="50"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="46"/>
       <c r="C3" s="45"/>
@@ -1634,7 +1636,7 @@
       <c r="T3" s="46"/>
       <c r="U3" s="50"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47"/>
       <c r="B4" s="48"/>
       <c r="C4" s="47"/>
@@ -1657,430 +1659,428 @@
       <c r="T4" s="48"/>
       <c r="U4" s="51"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="61" t="s">
+    <row r="5" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="63"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="66"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="91" t="s">
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="78"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="81"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="91" t="s">
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="93"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C10" s="85" t="s">
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="63"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E10" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="85" t="s">
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="87"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="87"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="88"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="90"/>
-    </row>
-    <row r="13" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="91" t="s">
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="72"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="72"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="73"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="75"/>
+    </row>
+    <row r="13" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="91" t="s">
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="93"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="85" t="s">
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="63"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="85" t="s">
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="87"/>
-      <c r="U14" s="67" t="s">
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="72"/>
+      <c r="X14" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="V14" s="68"/>
-      <c r="W14" s="69"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="87"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="72"/>
-    </row>
-    <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="88"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="90"/>
-    </row>
-    <row r="17" spans="3:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="91" t="s">
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="84"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="70"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="72"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="87"/>
+    </row>
+    <row r="16" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="75"/>
+    </row>
+    <row r="17" spans="5:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="91" t="s">
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="93"/>
-      <c r="U17" s="73" t="s">
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="63"/>
+      <c r="X17" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="V17" s="74"/>
-      <c r="W17" s="75"/>
-    </row>
-    <row r="18" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="85" t="s">
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="90"/>
+    </row>
+    <row r="18" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="85" t="s">
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="87"/>
-      <c r="U18" s="76"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="78"/>
-    </row>
-    <row r="19" spans="3:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="87"/>
-    </row>
-    <row r="20" spans="3:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="88"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="90"/>
-      <c r="U20" s="79" t="s">
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="72"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="93"/>
+    </row>
+    <row r="19" spans="5:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="72"/>
+    </row>
+    <row r="20" spans="5:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="75"/>
+      <c r="X20" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="V20" s="80"/>
-      <c r="W20" s="81"/>
-    </row>
-    <row r="21" spans="3:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="91" t="s">
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="96"/>
+    </row>
+    <row r="21" spans="5:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="91" t="s">
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="93"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="83"/>
-      <c r="W21" s="84"/>
-    </row>
-    <row r="22" spans="3:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="85" t="s">
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="63"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="99"/>
+    </row>
+    <row r="22" spans="5:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="85" t="s">
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="87"/>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="87"/>
-    </row>
-    <row r="24" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="90"/>
-    </row>
-    <row r="25" spans="3:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="91" t="s">
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="72"/>
+    </row>
+    <row r="23" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="72"/>
+    </row>
+    <row r="24" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="73"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="75"/>
+    </row>
+    <row r="25" spans="5:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="91" t="s">
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="93"/>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C26" s="85" t="s">
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="63"/>
+    </row>
+    <row r="26" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E26" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="85" t="s">
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="87"/>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="87"/>
-    </row>
-    <row r="28" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="88"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="90"/>
-    </row>
-    <row r="29" spans="3:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="72"/>
+    </row>
+    <row r="27" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="72"/>
+    </row>
+    <row r="28" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="73"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="75"/>
+    </row>
+    <row r="29" spans="5:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="22"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -2091,46 +2091,46 @@
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
-      <c r="P29" s="24"/>
-    </row>
-    <row r="30" spans="3:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="24"/>
+    </row>
+    <row r="30" spans="5:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="25"/>
       <c r="F30" s="26"/>
-      <c r="G30" s="94" t="s">
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="66"/>
       <c r="O30" s="26"/>
-      <c r="P30" s="29"/>
-    </row>
-    <row r="31" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="29"/>
+    </row>
+    <row r="31" spans="5:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="25"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="69"/>
       <c r="O31" s="26"/>
-      <c r="P31" s="29"/>
-    </row>
-    <row r="32" spans="3:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="29"/>
+    </row>
+    <row r="32" spans="5:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="27"/>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
@@ -2141,42 +2141,44 @@
       <c r="M32" s="28"/>
       <c r="N32" s="28"/>
       <c r="O32" s="28"/>
-      <c r="P32" s="30"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="30"/>
     </row>
     <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="X14:Z15"/>
+    <mergeCell ref="X17:Z18"/>
+    <mergeCell ref="X20:Z21"/>
+    <mergeCell ref="E10:K12"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="E18:K20"/>
+    <mergeCell ref="E14:K16"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="L18:R20"/>
+    <mergeCell ref="L17:R17"/>
+    <mergeCell ref="L14:R16"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="L10:R12"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="L21:R21"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="I30:N31"/>
     <mergeCell ref="S1:U4"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:I4"/>
     <mergeCell ref="J1:L4"/>
     <mergeCell ref="M1:O4"/>
     <mergeCell ref="P1:R4"/>
-    <mergeCell ref="C26:I28"/>
-    <mergeCell ref="J26:P28"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="J22:P24"/>
-    <mergeCell ref="C22:I24"/>
-    <mergeCell ref="C7:P8"/>
-    <mergeCell ref="U14:W15"/>
-    <mergeCell ref="U17:W18"/>
-    <mergeCell ref="U20:W21"/>
-    <mergeCell ref="C10:I12"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C18:I20"/>
-    <mergeCell ref="C14:I16"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="J18:P20"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J14:P16"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="J10:P12"/>
-    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="E26:K28"/>
+    <mergeCell ref="L26:R28"/>
+    <mergeCell ref="L25:R25"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="L22:R24"/>
+    <mergeCell ref="E22:K24"/>
+    <mergeCell ref="E7:R8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2315,8 +2317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B2A47F-6C30-4471-9A20-030145DEC04F}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y22:AA29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2456,14 +2458,14 @@
       <c r="Z6" s="108"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="126" t="s">
+      <c r="H7" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="127"/>
-      <c r="G7" s="130" t="s">
+      <c r="I7" s="127"/>
+      <c r="J7" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="131"/>
+      <c r="K7" s="131"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="15"/>
@@ -2473,10 +2475,10 @@
       <c r="Z7" s="108"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="128"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="133"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="133"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="15"/>
@@ -2498,14 +2500,14 @@
       <c r="Z9" s="114"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="31"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="35"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="16"/>
@@ -2515,14 +2517,14 @@
       <c r="Z10" s="117"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="32"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="37"/>
       <c r="S11" s="10"/>
       <c r="T11" s="11"/>
       <c r="W11" s="115"/>
@@ -2531,215 +2533,202 @@
       <c r="Z11" s="117"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="32"/>
-      <c r="F12" s="123" t="s">
+      <c r="H12" s="32"/>
+      <c r="I12" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
       <c r="J12" s="124"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="37"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="37"/>
       <c r="W12" s="115"/>
       <c r="X12" s="116"/>
       <c r="Y12" s="116"/>
       <c r="Z12" s="117"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="32"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="37"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="37"/>
       <c r="W13" s="115"/>
       <c r="X13" s="116"/>
       <c r="Y13" s="116"/>
       <c r="Z13" s="117"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="32"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="37"/>
       <c r="W14" s="115"/>
       <c r="X14" s="116"/>
       <c r="Y14" s="116"/>
       <c r="Z14" s="117"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="32"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="37"/>
       <c r="W15" s="118"/>
       <c r="X15" s="119"/>
       <c r="Y15" s="119"/>
       <c r="Z15" s="120"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="32"/>
-      <c r="F16" s="123" t="s">
+      <c r="H16" s="32"/>
+      <c r="I16" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
       <c r="J16" s="124"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="134" t="s">
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="134" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="32"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="135"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="135"/>
     </row>
     <row r="18" spans="5:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="32"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
-      <c r="L18" s="37"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="37"/>
     </row>
     <row r="19" spans="5:27" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="32"/>
-      <c r="F19" s="121" t="s">
+      <c r="H19" s="32"/>
+      <c r="I19" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="123" t="s">
+      <c r="J19" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="37"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="37"/>
     </row>
     <row r="20" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="32"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="37"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="37"/>
     </row>
     <row r="21" spans="5:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="32"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
-      <c r="L21" s="37"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
     </row>
     <row r="22" spans="5:27" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="32"/>
-      <c r="F22" s="123" t="s">
+      <c r="H22" s="32"/>
+      <c r="I22" s="123" t="s">
         <v>2</v>
-      </c>
-      <c r="G22" s="124"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="123" t="s">
-        <v>17</v>
       </c>
       <c r="J22" s="124"/>
       <c r="K22" s="125"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="1"/>
-      <c r="Y22" s="67" t="s">
+      <c r="L22" s="123" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="124"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="38"/>
+      <c r="Y22" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="69"/>
+      <c r="Z22" s="83"/>
+      <c r="AA22" s="84"/>
     </row>
     <row r="23" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="32"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="1"/>
-      <c r="Y23" s="70"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="72"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="38"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="87"/>
     </row>
     <row r="24" spans="5:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="32"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+      <c r="H24" s="32"/>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="1"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="37"/>
     </row>
     <row r="25" spans="5:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="33"/>
-      <c r="F25" s="100" t="s">
+      <c r="H25" s="33"/>
+      <c r="I25" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
       <c r="J25" s="101"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="39"/>
-      <c r="Y25" s="73" t="s">
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="39"/>
+      <c r="Y25" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="Z25" s="74"/>
-      <c r="AA25" s="75"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="90"/>
     </row>
     <row r="26" spans="5:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="Y26" s="76"/>
-      <c r="Z26" s="77"/>
-      <c r="AA26" s="78"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="92"/>
+      <c r="AA26" s="93"/>
     </row>
     <row r="27" spans="5:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
       <c r="F27" s="19"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="1"/>
     </row>
     <row r="28" spans="5:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E28" s="1"/>
@@ -2750,11 +2739,11 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="Y28" s="79" t="s">
+      <c r="Y28" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="Z28" s="80"/>
-      <c r="AA28" s="81"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="96"/>
     </row>
     <row r="29" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="1"/>
@@ -2765,9 +2754,9 @@
       <c r="J29" s="20"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="83"/>
-      <c r="AA29" s="84"/>
+      <c r="Y29" s="97"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="99"/>
     </row>
     <row r="30" spans="5:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E30" s="1"/>
@@ -2801,27 +2790,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Y28:AA29"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="W3:Z8"/>
+    <mergeCell ref="W9:Z15"/>
+    <mergeCell ref="Y22:AA23"/>
+    <mergeCell ref="Y25:AA26"/>
+    <mergeCell ref="S1:U4"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:N20"/>
+    <mergeCell ref="L22:N23"/>
+    <mergeCell ref="I22:K23"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="I12:N13"/>
+    <mergeCell ref="I16:N17"/>
+    <mergeCell ref="O16:O17"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:I4"/>
     <mergeCell ref="J1:L4"/>
     <mergeCell ref="M1:O4"/>
     <mergeCell ref="P1:R4"/>
-    <mergeCell ref="Y28:AA29"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="W3:Z8"/>
-    <mergeCell ref="W9:Z15"/>
-    <mergeCell ref="Y22:AA23"/>
-    <mergeCell ref="Y25:AA26"/>
-    <mergeCell ref="S1:U4"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:K20"/>
-    <mergeCell ref="I22:K23"/>
-    <mergeCell ref="F22:H23"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="F12:K13"/>
-    <mergeCell ref="F16:K17"/>
-    <mergeCell ref="L16:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2830,10 +2819,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,6 +2861,14 @@
       </c>
       <c r="T1" s="53"/>
       <c r="U1" s="54"/>
+      <c r="W1" s="112" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="114"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
@@ -2895,6 +2892,12 @@
       <c r="S2" s="55"/>
       <c r="T2" s="56"/>
       <c r="U2" s="57"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="117"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
@@ -2918,6 +2921,12 @@
       <c r="S3" s="55"/>
       <c r="T3" s="56"/>
       <c r="U3" s="57"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="117"/>
     </row>
     <row r="4" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47"/>
@@ -2941,24 +2950,42 @@
       <c r="S4" s="58"/>
       <c r="T4" s="59"/>
       <c r="U4" s="60"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="117"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="151"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="18"/>
       <c r="S5" s="2"/>
       <c r="T5" s="9"/>
       <c r="U5" s="3"/>
-      <c r="W5" s="112" t="s">
-        <v>15</v>
-      </c>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="114"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="117"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="7"/>
@@ -2970,14 +2997,21 @@
       <c r="AB6" s="117"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="130" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="131"/>
-      <c r="G7" s="126" t="s">
+      <c r="I7" s="131"/>
+      <c r="J7" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="127"/>
+      <c r="K7" s="127"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="15"/>
@@ -2989,10 +3023,17 @@
       <c r="AB7" s="117"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="132"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="129"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="129"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="15"/>
@@ -3005,6 +3046,13 @@
       <c r="AB8" s="117"/>
     </row>
     <row r="9" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="5"/>
@@ -3016,14 +3064,21 @@
       <c r="AB9" s="117"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="31"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="35"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="16"/>
@@ -3035,14 +3090,21 @@
       <c r="AB10" s="117"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="32"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="37"/>
       <c r="S11" s="10"/>
       <c r="T11" s="11"/>
       <c r="U11" s="2"/>
@@ -3054,16 +3116,23 @@
       <c r="AB11" s="117"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="32"/>
-      <c r="F12" s="123" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
       <c r="J12" s="124"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="37"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="37"/>
       <c r="S12" s="12"/>
       <c r="T12" s="1"/>
       <c r="U12" s="5"/>
@@ -3075,14 +3144,21 @@
       <c r="AB12" s="117"/>
     </row>
     <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="32"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="37"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="37"/>
       <c r="S13" s="12"/>
       <c r="T13" s="1"/>
       <c r="U13" s="5"/>
@@ -3094,14 +3170,21 @@
       <c r="AB13" s="117"/>
     </row>
     <row r="14" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="32"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="37"/>
       <c r="S14" s="8"/>
       <c r="T14" s="13"/>
       <c r="U14" s="3"/>
@@ -3113,16 +3196,23 @@
       <c r="AB14" s="117"/>
     </row>
     <row r="15" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="32"/>
-      <c r="F15" s="123" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
       <c r="J15" s="124"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="37"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="37"/>
       <c r="W15" s="115"/>
       <c r="X15" s="116"/>
       <c r="Y15" s="116"/>
@@ -3131,14 +3221,21 @@
       <c r="AB15" s="117"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="32"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="37"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="37"/>
       <c r="W16" s="115"/>
       <c r="X16" s="116"/>
       <c r="Y16" s="116"/>
@@ -3146,15 +3243,22 @@
       <c r="AA16" s="116"/>
       <c r="AB16" s="117"/>
     </row>
-    <row r="17" spans="5:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="32"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
+    <row r="17" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="37"/>
       <c r="W17" s="115"/>
       <c r="X17" s="116"/>
       <c r="Y17" s="116"/>
@@ -3162,15 +3266,22 @@
       <c r="AA17" s="116"/>
       <c r="AB17" s="117"/>
     </row>
-    <row r="18" spans="5:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="32"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+    <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
-      <c r="L18" s="37"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="37"/>
       <c r="W18" s="115"/>
       <c r="X18" s="116"/>
       <c r="Y18" s="116"/>
@@ -3178,17 +3289,24 @@
       <c r="AA18" s="116"/>
       <c r="AB18" s="117"/>
     </row>
-    <row r="19" spans="5:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="32"/>
-      <c r="F19" s="123" t="s">
+    <row r="19" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="124"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
       <c r="J19" s="124"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="134" t="s">
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="134" t="s">
         <v>16</v>
       </c>
       <c r="W19" s="115"/>
@@ -3198,15 +3316,22 @@
       <c r="AA19" s="116"/>
       <c r="AB19" s="117"/>
     </row>
-    <row r="20" spans="5:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="32"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="135"/>
+    <row r="20" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="135"/>
       <c r="W20" s="115"/>
       <c r="X20" s="116"/>
       <c r="Y20" s="116"/>
@@ -3214,15 +3339,22 @@
       <c r="AA20" s="116"/>
       <c r="AB20" s="117"/>
     </row>
-    <row r="21" spans="5:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="32"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+    <row r="21" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="41"/>
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
-      <c r="L21" s="37"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="37"/>
       <c r="W21" s="115"/>
       <c r="X21" s="116"/>
       <c r="Y21" s="116"/>
@@ -3230,17 +3362,24 @@
       <c r="AA21" s="116"/>
       <c r="AB21" s="117"/>
     </row>
-    <row r="22" spans="5:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="32"/>
-      <c r="F22" s="123" t="s">
+    <row r="22" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
       <c r="J22" s="124"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="134" t="s">
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="134" t="s">
         <v>16</v>
       </c>
       <c r="W22" s="115"/>
@@ -3250,15 +3389,22 @@
       <c r="AA22" s="116"/>
       <c r="AB22" s="117"/>
     </row>
-    <row r="23" spans="5:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="32"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="135"/>
+    <row r="23" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="135"/>
       <c r="W23" s="115"/>
       <c r="X23" s="116"/>
       <c r="Y23" s="116"/>
@@ -3266,20 +3412,22 @@
       <c r="AA23" s="116"/>
       <c r="AB23" s="117"/>
     </row>
-    <row r="24" spans="5:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="32"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+    <row r="24" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="32"/>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
-      <c r="L24" s="37"/>
-      <c r="R24" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="S24" s="68"/>
-      <c r="T24" s="69"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="37"/>
       <c r="W24" s="115"/>
       <c r="X24" s="116"/>
       <c r="Y24" s="116"/>
@@ -3287,22 +3435,26 @@
       <c r="AA24" s="116"/>
       <c r="AB24" s="117"/>
     </row>
-    <row r="25" spans="5:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="32"/>
-      <c r="F25" s="42" t="s">
+    <row r="25" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="148" t="s">
+      <c r="J25" s="41"/>
+      <c r="K25" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="37"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="72"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="37"/>
       <c r="W25" s="115"/>
       <c r="X25" s="116"/>
       <c r="Y25" s="116"/>
@@ -3310,154 +3462,350 @@
       <c r="AA25" s="116"/>
       <c r="AB25" s="117"/>
     </row>
-    <row r="26" spans="5:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="32"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+    <row r="26" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="41"/>
       <c r="J26" s="41"/>
       <c r="K26" s="41"/>
-      <c r="L26" s="37"/>
-      <c r="W26" s="115"/>
-      <c r="X26" s="116"/>
-      <c r="Y26" s="116"/>
-      <c r="Z26" s="116"/>
-      <c r="AA26" s="116"/>
-      <c r="AB26" s="117"/>
-    </row>
-    <row r="27" spans="5:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="32"/>
-      <c r="F27" s="42" t="s">
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="37"/>
+      <c r="W26" s="118"/>
+      <c r="X26" s="119"/>
+      <c r="Y26" s="119"/>
+      <c r="Z26" s="119"/>
+      <c r="AA26" s="119"/>
+      <c r="AB26" s="120"/>
+    </row>
+    <row r="27" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="136" t="s">
+      <c r="J27" s="36"/>
+      <c r="K27" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="37"/>
-      <c r="R27" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="S27" s="74"/>
-      <c r="T27" s="75"/>
-      <c r="W27" s="115"/>
-      <c r="X27" s="116"/>
-      <c r="Y27" s="116"/>
-      <c r="Z27" s="116"/>
-      <c r="AA27" s="116"/>
-      <c r="AB27" s="117"/>
-    </row>
-    <row r="28" spans="5:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="32"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="37"/>
+    </row>
+    <row r="28" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="32"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
-      <c r="L28" s="37"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="78"/>
-      <c r="W28" s="115"/>
-      <c r="X28" s="116"/>
-      <c r="Y28" s="116"/>
-      <c r="Z28" s="116"/>
-      <c r="AA28" s="116"/>
-      <c r="AB28" s="117"/>
-    </row>
-    <row r="29" spans="5:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="32"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="139" t="s">
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="37"/>
+      <c r="W28" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="84"/>
+      <c r="AA28" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB28" s="95"/>
+      <c r="AC28" s="96"/>
+    </row>
+    <row r="29" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="37"/>
-      <c r="W29" s="115"/>
-      <c r="X29" s="116"/>
-      <c r="Y29" s="116"/>
-      <c r="Z29" s="116"/>
-      <c r="AA29" s="116"/>
-      <c r="AB29" s="117"/>
-    </row>
-    <row r="30" spans="5:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="32"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="37"/>
-      <c r="R30" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="S30" s="80"/>
-      <c r="T30" s="81"/>
-      <c r="W30" s="118"/>
-      <c r="X30" s="119"/>
-      <c r="Y30" s="119"/>
-      <c r="Z30" s="119"/>
-      <c r="AA30" s="119"/>
-      <c r="AB30" s="120"/>
-    </row>
-    <row r="31" spans="5:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="32"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="37"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="83"/>
-      <c r="T31" s="84"/>
-    </row>
-    <row r="32" spans="5:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="33"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="37"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="87"/>
+      <c r="AA29" s="97"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="99"/>
+    </row>
+    <row r="30" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="144"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="37"/>
+    </row>
+    <row r="31" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="37"/>
+      <c r="W31" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="90"/>
+    </row>
+    <row r="32" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="40"/>
       <c r="J32" s="40"/>
       <c r="K32" s="40"/>
-      <c r="L32" s="39"/>
-    </row>
-    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="39"/>
+      <c r="W32" s="91"/>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="93"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="J29:M31"/>
+    <mergeCell ref="W1:AB26"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="I22:N23"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="W28:Y29"/>
+    <mergeCell ref="W31:Y32"/>
+    <mergeCell ref="AA28:AC29"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="I12:N13"/>
+    <mergeCell ref="I15:N16"/>
+    <mergeCell ref="I19:N20"/>
     <mergeCell ref="S1:U4"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:I4"/>
     <mergeCell ref="J1:L4"/>
     <mergeCell ref="M1:O4"/>
     <mergeCell ref="P1:R4"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="G29:J31"/>
-    <mergeCell ref="W5:AB30"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="F22:K23"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="R24:T25"/>
-    <mergeCell ref="R27:T28"/>
-    <mergeCell ref="R30:T31"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="F12:K13"/>
-    <mergeCell ref="F15:K16"/>
-    <mergeCell ref="F19:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A4688B-F27E-4967-AA93-A64EB8527F84}">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="44"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="44"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="57"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="57"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="60"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:I4"/>
+    <mergeCell ref="J1:L4"/>
+    <mergeCell ref="M1:O4"/>
+    <mergeCell ref="P1:R4"/>
+    <mergeCell ref="S1:U4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>